--- a/BalanceSheet/VFC_bal.xlsx
+++ b/BalanceSheet/VFC_bal.xlsx
@@ -522,19 +522,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>382228000.0</v>
+        <v>1076000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-15386000.0</v>
+        <v>1435000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-100129000.0</v>
+        <v>1403000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-7882000.0</v>
+        <v>1294000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>341555000.0</v>
+        <v>1565000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>1590027000.0</v>
@@ -1804,19 +1804,19 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>-42715000.0</v>
+        <v>412000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>95787000.0</v>
+        <v>450000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>-59768000.0</v>
+        <v>349000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>47858000.0</v>
+        <v>407000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>-97573000.0</v>
+        <v>457000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>483207000.0</v>
@@ -2699,7 +2699,7 @@
         </is>
       </c>
       <c r="E19" s="0" t="n">
-        <v>-74499000.0</v>
+        <v>-22000000.0</v>
       </c>
       <c r="F19" s="0" t="inlineStr">
         <is>
